--- a/intervention_file.xlsx
+++ b/intervention_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\db2457\Documents\Projects\Offboarding Code\HBM Artifact Cleaning\code\intervention_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC91C2EE-17C2-4D95-9C8B-A490722B0137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E4F48B-CC92-4069-BC49-5A1C539E8A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="1620" windowWidth="16800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12000" yWindow="1890" windowWidth="16800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intervention_file" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="8">
   <si>
     <t>event_id</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>NIMODIPINE 30 MG/5 ML ORAL SYRINGE (FOR ORAL USE ONLY)</t>
+  </si>
+  <si>
+    <t>MR12345</t>
   </si>
 </sst>
 </file>
@@ -884,7 +887,7 @@
   <dimension ref="A1:E283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,8 +917,8 @@
       <c r="A2">
         <v>6561</v>
       </c>
-      <c r="B2">
-        <v>12345</v>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -931,8 +934,8 @@
       <c r="A3">
         <v>6562</v>
       </c>
-      <c r="B3">
-        <v>12345</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -948,8 +951,8 @@
       <c r="A4">
         <v>6563</v>
       </c>
-      <c r="B4">
-        <v>12345</v>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -962,8 +965,8 @@
       <c r="A5">
         <v>6564</v>
       </c>
-      <c r="B5">
-        <v>12345</v>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -979,8 +982,8 @@
       <c r="A6">
         <v>6565</v>
       </c>
-      <c r="B6">
-        <v>12345</v>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -996,8 +999,8 @@
       <c r="A7">
         <v>6566</v>
       </c>
-      <c r="B7">
-        <v>12345</v>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1013,8 +1016,8 @@
       <c r="A8">
         <v>6567</v>
       </c>
-      <c r="B8">
-        <v>12345</v>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1027,8 +1030,8 @@
       <c r="A9">
         <v>6568</v>
       </c>
-      <c r="B9">
-        <v>12345</v>
+      <c r="B9" t="s">
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1041,8 +1044,8 @@
       <c r="A10">
         <v>6569</v>
       </c>
-      <c r="B10">
-        <v>12345</v>
+      <c r="B10" t="s">
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1055,8 +1058,8 @@
       <c r="A11">
         <v>6570</v>
       </c>
-      <c r="B11">
-        <v>12345</v>
+      <c r="B11" t="s">
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1069,8 +1072,8 @@
       <c r="A12">
         <v>6571</v>
       </c>
-      <c r="B12">
-        <v>12345</v>
+      <c r="B12" t="s">
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1083,8 +1086,8 @@
       <c r="A13">
         <v>6572</v>
       </c>
-      <c r="B13">
-        <v>12345</v>
+      <c r="B13" t="s">
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1097,8 +1100,8 @@
       <c r="A14">
         <v>6573</v>
       </c>
-      <c r="B14">
-        <v>12345</v>
+      <c r="B14" t="s">
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1114,8 +1117,8 @@
       <c r="A15">
         <v>6574</v>
       </c>
-      <c r="B15">
-        <v>12345</v>
+      <c r="B15" t="s">
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1128,8 +1131,8 @@
       <c r="A16">
         <v>6575</v>
       </c>
-      <c r="B16">
-        <v>12345</v>
+      <c r="B16" t="s">
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1142,8 +1145,8 @@
       <c r="A17">
         <v>6576</v>
       </c>
-      <c r="B17">
-        <v>12345</v>
+      <c r="B17" t="s">
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1156,8 +1159,8 @@
       <c r="A18">
         <v>6577</v>
       </c>
-      <c r="B18">
-        <v>12345</v>
+      <c r="B18" t="s">
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1173,8 +1176,8 @@
       <c r="A19">
         <v>6578</v>
       </c>
-      <c r="B19">
-        <v>12345</v>
+      <c r="B19" t="s">
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1187,8 +1190,8 @@
       <c r="A20">
         <v>6579</v>
       </c>
-      <c r="B20">
-        <v>12345</v>
+      <c r="B20" t="s">
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1201,8 +1204,8 @@
       <c r="A21">
         <v>6580</v>
       </c>
-      <c r="B21">
-        <v>12345</v>
+      <c r="B21" t="s">
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1215,8 +1218,8 @@
       <c r="A22">
         <v>6581</v>
       </c>
-      <c r="B22">
-        <v>12345</v>
+      <c r="B22" t="s">
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1229,8 +1232,8 @@
       <c r="A23">
         <v>6582</v>
       </c>
-      <c r="B23">
-        <v>12345</v>
+      <c r="B23" t="s">
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1243,8 +1246,8 @@
       <c r="A24">
         <v>6583</v>
       </c>
-      <c r="B24">
-        <v>12345</v>
+      <c r="B24" t="s">
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1257,8 +1260,8 @@
       <c r="A25">
         <v>6584</v>
       </c>
-      <c r="B25">
-        <v>12345</v>
+      <c r="B25" t="s">
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1271,8 +1274,8 @@
       <c r="A26">
         <v>6585</v>
       </c>
-      <c r="B26">
-        <v>12345</v>
+      <c r="B26" t="s">
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1285,8 +1288,8 @@
       <c r="A27">
         <v>6586</v>
       </c>
-      <c r="B27">
-        <v>12345</v>
+      <c r="B27" t="s">
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1299,8 +1302,8 @@
       <c r="A28">
         <v>6587</v>
       </c>
-      <c r="B28">
-        <v>12345</v>
+      <c r="B28" t="s">
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1313,8 +1316,8 @@
       <c r="A29">
         <v>6588</v>
       </c>
-      <c r="B29">
-        <v>12345</v>
+      <c r="B29" t="s">
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1327,8 +1330,8 @@
       <c r="A30">
         <v>6589</v>
       </c>
-      <c r="B30">
-        <v>12345</v>
+      <c r="B30" t="s">
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1341,8 +1344,8 @@
       <c r="A31">
         <v>6590</v>
       </c>
-      <c r="B31">
-        <v>12345</v>
+      <c r="B31" t="s">
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1355,8 +1358,8 @@
       <c r="A32">
         <v>6591</v>
       </c>
-      <c r="B32">
-        <v>12345</v>
+      <c r="B32" t="s">
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1369,8 +1372,8 @@
       <c r="A33">
         <v>6592</v>
       </c>
-      <c r="B33">
-        <v>12345</v>
+      <c r="B33" t="s">
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1383,8 +1386,8 @@
       <c r="A34">
         <v>6593</v>
       </c>
-      <c r="B34">
-        <v>12345</v>
+      <c r="B34" t="s">
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1397,8 +1400,8 @@
       <c r="A35">
         <v>6594</v>
       </c>
-      <c r="B35">
-        <v>12345</v>
+      <c r="B35" t="s">
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1411,8 +1414,8 @@
       <c r="A36">
         <v>6595</v>
       </c>
-      <c r="B36">
-        <v>12345</v>
+      <c r="B36" t="s">
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1425,8 +1428,8 @@
       <c r="A37">
         <v>6596</v>
       </c>
-      <c r="B37">
-        <v>12345</v>
+      <c r="B37" t="s">
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1439,8 +1442,8 @@
       <c r="A38">
         <v>6597</v>
       </c>
-      <c r="B38">
-        <v>12345</v>
+      <c r="B38" t="s">
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1453,8 +1456,8 @@
       <c r="A39">
         <v>6598</v>
       </c>
-      <c r="B39">
-        <v>12345</v>
+      <c r="B39" t="s">
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1467,8 +1470,8 @@
       <c r="A40">
         <v>6599</v>
       </c>
-      <c r="B40">
-        <v>12345</v>
+      <c r="B40" t="s">
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1481,8 +1484,8 @@
       <c r="A41">
         <v>6600</v>
       </c>
-      <c r="B41">
-        <v>12345</v>
+      <c r="B41" t="s">
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1495,8 +1498,8 @@
       <c r="A42">
         <v>6601</v>
       </c>
-      <c r="B42">
-        <v>12345</v>
+      <c r="B42" t="s">
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1509,8 +1512,8 @@
       <c r="A43">
         <v>6602</v>
       </c>
-      <c r="B43">
-        <v>12345</v>
+      <c r="B43" t="s">
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1523,8 +1526,8 @@
       <c r="A44">
         <v>6603</v>
       </c>
-      <c r="B44">
-        <v>12345</v>
+      <c r="B44" t="s">
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1537,8 +1540,8 @@
       <c r="A45">
         <v>6604</v>
       </c>
-      <c r="B45">
-        <v>12345</v>
+      <c r="B45" t="s">
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1551,8 +1554,8 @@
       <c r="A46">
         <v>6605</v>
       </c>
-      <c r="B46">
-        <v>12345</v>
+      <c r="B46" t="s">
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1565,8 +1568,8 @@
       <c r="A47">
         <v>6606</v>
       </c>
-      <c r="B47">
-        <v>12345</v>
+      <c r="B47" t="s">
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1579,8 +1582,8 @@
       <c r="A48">
         <v>6607</v>
       </c>
-      <c r="B48">
-        <v>12345</v>
+      <c r="B48" t="s">
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1593,8 +1596,8 @@
       <c r="A49">
         <v>6608</v>
       </c>
-      <c r="B49">
-        <v>12345</v>
+      <c r="B49" t="s">
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1607,8 +1610,8 @@
       <c r="A50">
         <v>6609</v>
       </c>
-      <c r="B50">
-        <v>12345</v>
+      <c r="B50" t="s">
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1621,8 +1624,8 @@
       <c r="A51">
         <v>6610</v>
       </c>
-      <c r="B51">
-        <v>12345</v>
+      <c r="B51" t="s">
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1635,8 +1638,8 @@
       <c r="A52">
         <v>6611</v>
       </c>
-      <c r="B52">
-        <v>12345</v>
+      <c r="B52" t="s">
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1649,8 +1652,8 @@
       <c r="A53">
         <v>6612</v>
       </c>
-      <c r="B53">
-        <v>12345</v>
+      <c r="B53" t="s">
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1663,8 +1666,8 @@
       <c r="A54">
         <v>6613</v>
       </c>
-      <c r="B54">
-        <v>12345</v>
+      <c r="B54" t="s">
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1677,8 +1680,8 @@
       <c r="A55">
         <v>6614</v>
       </c>
-      <c r="B55">
-        <v>12345</v>
+      <c r="B55" t="s">
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1691,8 +1694,8 @@
       <c r="A56">
         <v>6615</v>
       </c>
-      <c r="B56">
-        <v>12345</v>
+      <c r="B56" t="s">
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1705,8 +1708,8 @@
       <c r="A57">
         <v>6616</v>
       </c>
-      <c r="B57">
-        <v>12345</v>
+      <c r="B57" t="s">
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1719,8 +1722,8 @@
       <c r="A58">
         <v>6617</v>
       </c>
-      <c r="B58">
-        <v>12345</v>
+      <c r="B58" t="s">
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1733,8 +1736,8 @@
       <c r="A59">
         <v>6618</v>
       </c>
-      <c r="B59">
-        <v>12345</v>
+      <c r="B59" t="s">
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1747,8 +1750,8 @@
       <c r="A60">
         <v>6619</v>
       </c>
-      <c r="B60">
-        <v>12345</v>
+      <c r="B60" t="s">
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1761,8 +1764,8 @@
       <c r="A61">
         <v>6620</v>
       </c>
-      <c r="B61">
-        <v>12345</v>
+      <c r="B61" t="s">
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1775,8 +1778,8 @@
       <c r="A62">
         <v>6621</v>
       </c>
-      <c r="B62">
-        <v>12345</v>
+      <c r="B62" t="s">
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1789,8 +1792,8 @@
       <c r="A63">
         <v>6622</v>
       </c>
-      <c r="B63">
-        <v>12345</v>
+      <c r="B63" t="s">
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1803,8 +1806,8 @@
       <c r="A64">
         <v>6623</v>
       </c>
-      <c r="B64">
-        <v>12345</v>
+      <c r="B64" t="s">
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1817,8 +1820,8 @@
       <c r="A65">
         <v>6624</v>
       </c>
-      <c r="B65">
-        <v>12345</v>
+      <c r="B65" t="s">
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1831,8 +1834,8 @@
       <c r="A66">
         <v>6625</v>
       </c>
-      <c r="B66">
-        <v>12345</v>
+      <c r="B66" t="s">
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1845,8 +1848,8 @@
       <c r="A67">
         <v>6626</v>
       </c>
-      <c r="B67">
-        <v>12345</v>
+      <c r="B67" t="s">
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1859,8 +1862,8 @@
       <c r="A68">
         <v>6627</v>
       </c>
-      <c r="B68">
-        <v>12345</v>
+      <c r="B68" t="s">
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1873,8 +1876,8 @@
       <c r="A69">
         <v>6628</v>
       </c>
-      <c r="B69">
-        <v>12345</v>
+      <c r="B69" t="s">
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1887,8 +1890,8 @@
       <c r="A70">
         <v>6629</v>
       </c>
-      <c r="B70">
-        <v>12345</v>
+      <c r="B70" t="s">
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1901,8 +1904,8 @@
       <c r="A71">
         <v>6630</v>
       </c>
-      <c r="B71">
-        <v>12345</v>
+      <c r="B71" t="s">
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1915,8 +1918,8 @@
       <c r="A72">
         <v>6631</v>
       </c>
-      <c r="B72">
-        <v>12345</v>
+      <c r="B72" t="s">
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1932,8 +1935,8 @@
       <c r="A73">
         <v>6632</v>
       </c>
-      <c r="B73">
-        <v>12345</v>
+      <c r="B73" t="s">
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1949,8 +1952,8 @@
       <c r="A74">
         <v>6633</v>
       </c>
-      <c r="B74">
-        <v>12345</v>
+      <c r="B74" t="s">
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1963,8 +1966,8 @@
       <c r="A75">
         <v>6634</v>
       </c>
-      <c r="B75">
-        <v>12345</v>
+      <c r="B75" t="s">
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1977,8 +1980,8 @@
       <c r="A76">
         <v>6635</v>
       </c>
-      <c r="B76">
-        <v>12345</v>
+      <c r="B76" t="s">
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1991,8 +1994,8 @@
       <c r="A77">
         <v>6636</v>
       </c>
-      <c r="B77">
-        <v>12345</v>
+      <c r="B77" t="s">
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2005,8 +2008,8 @@
       <c r="A78">
         <v>6637</v>
       </c>
-      <c r="B78">
-        <v>12345</v>
+      <c r="B78" t="s">
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2019,8 +2022,8 @@
       <c r="A79">
         <v>6638</v>
       </c>
-      <c r="B79">
-        <v>12345</v>
+      <c r="B79" t="s">
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2033,8 +2036,8 @@
       <c r="A80">
         <v>6639</v>
       </c>
-      <c r="B80">
-        <v>12345</v>
+      <c r="B80" t="s">
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2050,8 +2053,8 @@
       <c r="A81">
         <v>6640</v>
       </c>
-      <c r="B81">
-        <v>12345</v>
+      <c r="B81" t="s">
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2064,8 +2067,8 @@
       <c r="A82">
         <v>6641</v>
       </c>
-      <c r="B82">
-        <v>12345</v>
+      <c r="B82" t="s">
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2078,8 +2081,8 @@
       <c r="A83">
         <v>6642</v>
       </c>
-      <c r="B83">
-        <v>12345</v>
+      <c r="B83" t="s">
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2092,8 +2095,8 @@
       <c r="A84">
         <v>6643</v>
       </c>
-      <c r="B84">
-        <v>12345</v>
+      <c r="B84" t="s">
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2106,8 +2109,8 @@
       <c r="A85">
         <v>6644</v>
       </c>
-      <c r="B85">
-        <v>12345</v>
+      <c r="B85" t="s">
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2120,8 +2123,8 @@
       <c r="A86">
         <v>6645</v>
       </c>
-      <c r="B86">
-        <v>12345</v>
+      <c r="B86" t="s">
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2134,8 +2137,8 @@
       <c r="A87">
         <v>6646</v>
       </c>
-      <c r="B87">
-        <v>12345</v>
+      <c r="B87" t="s">
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2148,8 +2151,8 @@
       <c r="A88">
         <v>6647</v>
       </c>
-      <c r="B88">
-        <v>12345</v>
+      <c r="B88" t="s">
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2162,8 +2165,8 @@
       <c r="A89">
         <v>6648</v>
       </c>
-      <c r="B89">
-        <v>12345</v>
+      <c r="B89" t="s">
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2176,8 +2179,8 @@
       <c r="A90">
         <v>6649</v>
       </c>
-      <c r="B90">
-        <v>12345</v>
+      <c r="B90" t="s">
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2190,8 +2193,8 @@
       <c r="A91">
         <v>6650</v>
       </c>
-      <c r="B91">
-        <v>12345</v>
+      <c r="B91" t="s">
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2204,8 +2207,8 @@
       <c r="A92">
         <v>6651</v>
       </c>
-      <c r="B92">
-        <v>12345</v>
+      <c r="B92" t="s">
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2218,8 +2221,8 @@
       <c r="A93">
         <v>6652</v>
       </c>
-      <c r="B93">
-        <v>12345</v>
+      <c r="B93" t="s">
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2232,8 +2235,8 @@
       <c r="A94">
         <v>6653</v>
       </c>
-      <c r="B94">
-        <v>12345</v>
+      <c r="B94" t="s">
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2246,8 +2249,8 @@
       <c r="A95">
         <v>6654</v>
       </c>
-      <c r="B95">
-        <v>12345</v>
+      <c r="B95" t="s">
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2260,8 +2263,8 @@
       <c r="A96">
         <v>6655</v>
       </c>
-      <c r="B96">
-        <v>12345</v>
+      <c r="B96" t="s">
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2274,8 +2277,8 @@
       <c r="A97">
         <v>6656</v>
       </c>
-      <c r="B97">
-        <v>12345</v>
+      <c r="B97" t="s">
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2288,8 +2291,8 @@
       <c r="A98">
         <v>6657</v>
       </c>
-      <c r="B98">
-        <v>12345</v>
+      <c r="B98" t="s">
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2302,8 +2305,8 @@
       <c r="A99">
         <v>6658</v>
       </c>
-      <c r="B99">
-        <v>12345</v>
+      <c r="B99" t="s">
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2316,8 +2319,8 @@
       <c r="A100">
         <v>6659</v>
       </c>
-      <c r="B100">
-        <v>12345</v>
+      <c r="B100" t="s">
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2330,8 +2333,8 @@
       <c r="A101">
         <v>6660</v>
       </c>
-      <c r="B101">
-        <v>12345</v>
+      <c r="B101" t="s">
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2344,8 +2347,8 @@
       <c r="A102">
         <v>6661</v>
       </c>
-      <c r="B102">
-        <v>12345</v>
+      <c r="B102" t="s">
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2358,8 +2361,8 @@
       <c r="A103">
         <v>6662</v>
       </c>
-      <c r="B103">
-        <v>12345</v>
+      <c r="B103" t="s">
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2372,8 +2375,8 @@
       <c r="A104">
         <v>6663</v>
       </c>
-      <c r="B104">
-        <v>12345</v>
+      <c r="B104" t="s">
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2386,8 +2389,8 @@
       <c r="A105">
         <v>6664</v>
       </c>
-      <c r="B105">
-        <v>12345</v>
+      <c r="B105" t="s">
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2400,8 +2403,8 @@
       <c r="A106">
         <v>6665</v>
       </c>
-      <c r="B106">
-        <v>12345</v>
+      <c r="B106" t="s">
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2414,8 +2417,8 @@
       <c r="A107">
         <v>6666</v>
       </c>
-      <c r="B107">
-        <v>12345</v>
+      <c r="B107" t="s">
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2428,8 +2431,8 @@
       <c r="A108">
         <v>6667</v>
       </c>
-      <c r="B108">
-        <v>12345</v>
+      <c r="B108" t="s">
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2442,8 +2445,8 @@
       <c r="A109">
         <v>6668</v>
       </c>
-      <c r="B109">
-        <v>12345</v>
+      <c r="B109" t="s">
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2456,8 +2459,8 @@
       <c r="A110">
         <v>6669</v>
       </c>
-      <c r="B110">
-        <v>12345</v>
+      <c r="B110" t="s">
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2470,8 +2473,8 @@
       <c r="A111">
         <v>6670</v>
       </c>
-      <c r="B111">
-        <v>12345</v>
+      <c r="B111" t="s">
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2484,8 +2487,8 @@
       <c r="A112">
         <v>6671</v>
       </c>
-      <c r="B112">
-        <v>12345</v>
+      <c r="B112" t="s">
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2498,8 +2501,8 @@
       <c r="A113">
         <v>6672</v>
       </c>
-      <c r="B113">
-        <v>12345</v>
+      <c r="B113" t="s">
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2512,8 +2515,8 @@
       <c r="A114">
         <v>6673</v>
       </c>
-      <c r="B114">
-        <v>12345</v>
+      <c r="B114" t="s">
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2526,8 +2529,8 @@
       <c r="A115">
         <v>6674</v>
       </c>
-      <c r="B115">
-        <v>12345</v>
+      <c r="B115" t="s">
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2540,8 +2543,8 @@
       <c r="A116">
         <v>6675</v>
       </c>
-      <c r="B116">
-        <v>12345</v>
+      <c r="B116" t="s">
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2554,8 +2557,8 @@
       <c r="A117">
         <v>6676</v>
       </c>
-      <c r="B117">
-        <v>12345</v>
+      <c r="B117" t="s">
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2568,8 +2571,8 @@
       <c r="A118">
         <v>6677</v>
       </c>
-      <c r="B118">
-        <v>12345</v>
+      <c r="B118" t="s">
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2582,8 +2585,8 @@
       <c r="A119">
         <v>6678</v>
       </c>
-      <c r="B119">
-        <v>12345</v>
+      <c r="B119" t="s">
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2596,8 +2599,8 @@
       <c r="A120">
         <v>6679</v>
       </c>
-      <c r="B120">
-        <v>12345</v>
+      <c r="B120" t="s">
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2610,8 +2613,8 @@
       <c r="A121">
         <v>6680</v>
       </c>
-      <c r="B121">
-        <v>12345</v>
+      <c r="B121" t="s">
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2624,8 +2627,8 @@
       <c r="A122">
         <v>6681</v>
       </c>
-      <c r="B122">
-        <v>12345</v>
+      <c r="B122" t="s">
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2638,8 +2641,8 @@
       <c r="A123">
         <v>6682</v>
       </c>
-      <c r="B123">
-        <v>12345</v>
+      <c r="B123" t="s">
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2652,8 +2655,8 @@
       <c r="A124">
         <v>6683</v>
       </c>
-      <c r="B124">
-        <v>12345</v>
+      <c r="B124" t="s">
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2666,8 +2669,8 @@
       <c r="A125">
         <v>6684</v>
       </c>
-      <c r="B125">
-        <v>12345</v>
+      <c r="B125" t="s">
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2683,8 +2686,8 @@
       <c r="A126">
         <v>6685</v>
       </c>
-      <c r="B126">
-        <v>12345</v>
+      <c r="B126" t="s">
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2700,8 +2703,8 @@
       <c r="A127">
         <v>6686</v>
       </c>
-      <c r="B127">
-        <v>12345</v>
+      <c r="B127" t="s">
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2717,8 +2720,8 @@
       <c r="A128">
         <v>6687</v>
       </c>
-      <c r="B128">
-        <v>12345</v>
+      <c r="B128" t="s">
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2734,8 +2737,8 @@
       <c r="A129">
         <v>6688</v>
       </c>
-      <c r="B129">
-        <v>12345</v>
+      <c r="B129" t="s">
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2751,8 +2754,8 @@
       <c r="A130">
         <v>6689</v>
       </c>
-      <c r="B130">
-        <v>12345</v>
+      <c r="B130" t="s">
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2768,8 +2771,8 @@
       <c r="A131">
         <v>6690</v>
       </c>
-      <c r="B131">
-        <v>12345</v>
+      <c r="B131" t="s">
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2785,8 +2788,8 @@
       <c r="A132">
         <v>6691</v>
       </c>
-      <c r="B132">
-        <v>12345</v>
+      <c r="B132" t="s">
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2802,8 +2805,8 @@
       <c r="A133">
         <v>6692</v>
       </c>
-      <c r="B133">
-        <v>12345</v>
+      <c r="B133" t="s">
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2819,8 +2822,8 @@
       <c r="A134">
         <v>6693</v>
       </c>
-      <c r="B134">
-        <v>12345</v>
+      <c r="B134" t="s">
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2836,8 +2839,8 @@
       <c r="A135">
         <v>6694</v>
       </c>
-      <c r="B135">
-        <v>12345</v>
+      <c r="B135" t="s">
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2853,8 +2856,8 @@
       <c r="A136">
         <v>6695</v>
       </c>
-      <c r="B136">
-        <v>12345</v>
+      <c r="B136" t="s">
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2870,8 +2873,8 @@
       <c r="A137">
         <v>6696</v>
       </c>
-      <c r="B137">
-        <v>12345</v>
+      <c r="B137" t="s">
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2887,8 +2890,8 @@
       <c r="A138">
         <v>6697</v>
       </c>
-      <c r="B138">
-        <v>12345</v>
+      <c r="B138" t="s">
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2904,8 +2907,8 @@
       <c r="A139">
         <v>6698</v>
       </c>
-      <c r="B139">
-        <v>12345</v>
+      <c r="B139" t="s">
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2918,8 +2921,8 @@
       <c r="A140">
         <v>6699</v>
       </c>
-      <c r="B140">
-        <v>12345</v>
+      <c r="B140" t="s">
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2935,8 +2938,8 @@
       <c r="A141">
         <v>6700</v>
       </c>
-      <c r="B141">
-        <v>12345</v>
+      <c r="B141" t="s">
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2952,8 +2955,8 @@
       <c r="A142">
         <v>6701</v>
       </c>
-      <c r="B142">
-        <v>12345</v>
+      <c r="B142" t="s">
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2969,8 +2972,8 @@
       <c r="A143">
         <v>6702</v>
       </c>
-      <c r="B143">
-        <v>12345</v>
+      <c r="B143" t="s">
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>6</v>
@@ -2983,8 +2986,8 @@
       <c r="A144">
         <v>6703</v>
       </c>
-      <c r="B144">
-        <v>12345</v>
+      <c r="B144" t="s">
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>6</v>
@@ -2997,8 +3000,8 @@
       <c r="A145">
         <v>6704</v>
       </c>
-      <c r="B145">
-        <v>12345</v>
+      <c r="B145" t="s">
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
@@ -3014,8 +3017,8 @@
       <c r="A146">
         <v>6705</v>
       </c>
-      <c r="B146">
-        <v>12345</v>
+      <c r="B146" t="s">
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
@@ -3028,8 +3031,8 @@
       <c r="A147">
         <v>6706</v>
       </c>
-      <c r="B147">
-        <v>12345</v>
+      <c r="B147" t="s">
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
@@ -3042,8 +3045,8 @@
       <c r="A148">
         <v>6707</v>
       </c>
-      <c r="B148">
-        <v>12345</v>
+      <c r="B148" t="s">
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>6</v>
@@ -3056,8 +3059,8 @@
       <c r="A149">
         <v>6708</v>
       </c>
-      <c r="B149">
-        <v>12345</v>
+      <c r="B149" t="s">
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>6</v>
@@ -3073,8 +3076,8 @@
       <c r="A150">
         <v>6709</v>
       </c>
-      <c r="B150">
-        <v>12345</v>
+      <c r="B150" t="s">
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>6</v>
@@ -3090,8 +3093,8 @@
       <c r="A151">
         <v>6710</v>
       </c>
-      <c r="B151">
-        <v>12345</v>
+      <c r="B151" t="s">
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>6</v>
@@ -3107,8 +3110,8 @@
       <c r="A152">
         <v>6711</v>
       </c>
-      <c r="B152">
-        <v>12345</v>
+      <c r="B152" t="s">
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>6</v>
@@ -3124,8 +3127,8 @@
       <c r="A153">
         <v>6712</v>
       </c>
-      <c r="B153">
-        <v>12345</v>
+      <c r="B153" t="s">
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>6</v>
@@ -3141,8 +3144,8 @@
       <c r="A154">
         <v>6713</v>
       </c>
-      <c r="B154">
-        <v>12345</v>
+      <c r="B154" t="s">
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
@@ -3158,8 +3161,8 @@
       <c r="A155">
         <v>6714</v>
       </c>
-      <c r="B155">
-        <v>12345</v>
+      <c r="B155" t="s">
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>6</v>
@@ -3172,8 +3175,8 @@
       <c r="A156">
         <v>6715</v>
       </c>
-      <c r="B156">
-        <v>12345</v>
+      <c r="B156" t="s">
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
@@ -3189,8 +3192,8 @@
       <c r="A157">
         <v>6716</v>
       </c>
-      <c r="B157">
-        <v>12345</v>
+      <c r="B157" t="s">
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
@@ -3206,8 +3209,8 @@
       <c r="A158">
         <v>6717</v>
       </c>
-      <c r="B158">
-        <v>12345</v>
+      <c r="B158" t="s">
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
@@ -3223,8 +3226,8 @@
       <c r="A159">
         <v>6718</v>
       </c>
-      <c r="B159">
-        <v>12345</v>
+      <c r="B159" t="s">
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
@@ -3237,8 +3240,8 @@
       <c r="A160">
         <v>6719</v>
       </c>
-      <c r="B160">
-        <v>12345</v>
+      <c r="B160" t="s">
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
@@ -3254,8 +3257,8 @@
       <c r="A161">
         <v>6720</v>
       </c>
-      <c r="B161">
-        <v>12345</v>
+      <c r="B161" t="s">
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>6</v>
@@ -3271,8 +3274,8 @@
       <c r="A162">
         <v>6721</v>
       </c>
-      <c r="B162">
-        <v>12345</v>
+      <c r="B162" t="s">
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
@@ -3288,8 +3291,8 @@
       <c r="A163">
         <v>6722</v>
       </c>
-      <c r="B163">
-        <v>12345</v>
+      <c r="B163" t="s">
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
@@ -3305,8 +3308,8 @@
       <c r="A164">
         <v>6723</v>
       </c>
-      <c r="B164">
-        <v>12345</v>
+      <c r="B164" t="s">
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
@@ -3322,8 +3325,8 @@
       <c r="A165">
         <v>6724</v>
       </c>
-      <c r="B165">
-        <v>12345</v>
+      <c r="B165" t="s">
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
@@ -3339,8 +3342,8 @@
       <c r="A166">
         <v>6725</v>
       </c>
-      <c r="B166">
-        <v>12345</v>
+      <c r="B166" t="s">
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
@@ -3356,8 +3359,8 @@
       <c r="A167">
         <v>6726</v>
       </c>
-      <c r="B167">
-        <v>12345</v>
+      <c r="B167" t="s">
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>6</v>
@@ -3373,8 +3376,8 @@
       <c r="A168">
         <v>6727</v>
       </c>
-      <c r="B168">
-        <v>12345</v>
+      <c r="B168" t="s">
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
@@ -3390,8 +3393,8 @@
       <c r="A169">
         <v>6728</v>
       </c>
-      <c r="B169">
-        <v>12345</v>
+      <c r="B169" t="s">
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
@@ -3407,8 +3410,8 @@
       <c r="A170">
         <v>6729</v>
       </c>
-      <c r="B170">
-        <v>12345</v>
+      <c r="B170" t="s">
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
@@ -3424,8 +3427,8 @@
       <c r="A171">
         <v>6730</v>
       </c>
-      <c r="B171">
-        <v>12345</v>
+      <c r="B171" t="s">
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
@@ -3441,8 +3444,8 @@
       <c r="A172">
         <v>6731</v>
       </c>
-      <c r="B172">
-        <v>12345</v>
+      <c r="B172" t="s">
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
@@ -3458,8 +3461,8 @@
       <c r="A173">
         <v>6732</v>
       </c>
-      <c r="B173">
-        <v>12345</v>
+      <c r="B173" t="s">
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
@@ -3475,8 +3478,8 @@
       <c r="A174">
         <v>6733</v>
       </c>
-      <c r="B174">
-        <v>12345</v>
+      <c r="B174" t="s">
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
@@ -3492,8 +3495,8 @@
       <c r="A175">
         <v>6734</v>
       </c>
-      <c r="B175">
-        <v>12345</v>
+      <c r="B175" t="s">
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>6</v>
@@ -3509,8 +3512,8 @@
       <c r="A176">
         <v>6735</v>
       </c>
-      <c r="B176">
-        <v>12345</v>
+      <c r="B176" t="s">
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>6</v>
@@ -3526,8 +3529,8 @@
       <c r="A177">
         <v>6736</v>
       </c>
-      <c r="B177">
-        <v>12345</v>
+      <c r="B177" t="s">
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
@@ -3543,8 +3546,8 @@
       <c r="A178">
         <v>6737</v>
       </c>
-      <c r="B178">
-        <v>12345</v>
+      <c r="B178" t="s">
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
@@ -3560,8 +3563,8 @@
       <c r="A179">
         <v>6738</v>
       </c>
-      <c r="B179">
-        <v>12345</v>
+      <c r="B179" t="s">
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
@@ -3577,8 +3580,8 @@
       <c r="A180">
         <v>6739</v>
       </c>
-      <c r="B180">
-        <v>12345</v>
+      <c r="B180" t="s">
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
@@ -3594,8 +3597,8 @@
       <c r="A181">
         <v>6740</v>
       </c>
-      <c r="B181">
-        <v>12345</v>
+      <c r="B181" t="s">
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
@@ -3611,8 +3614,8 @@
       <c r="A182">
         <v>6741</v>
       </c>
-      <c r="B182">
-        <v>12345</v>
+      <c r="B182" t="s">
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
@@ -3628,8 +3631,8 @@
       <c r="A183">
         <v>6742</v>
       </c>
-      <c r="B183">
-        <v>12345</v>
+      <c r="B183" t="s">
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
@@ -3645,8 +3648,8 @@
       <c r="A184">
         <v>6743</v>
       </c>
-      <c r="B184">
-        <v>12345</v>
+      <c r="B184" t="s">
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
@@ -3662,8 +3665,8 @@
       <c r="A185">
         <v>6744</v>
       </c>
-      <c r="B185">
-        <v>12345</v>
+      <c r="B185" t="s">
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
@@ -3679,8 +3682,8 @@
       <c r="A186">
         <v>6745</v>
       </c>
-      <c r="B186">
-        <v>12345</v>
+      <c r="B186" t="s">
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
@@ -3696,8 +3699,8 @@
       <c r="A187">
         <v>6746</v>
       </c>
-      <c r="B187">
-        <v>12345</v>
+      <c r="B187" t="s">
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
@@ -3713,8 +3716,8 @@
       <c r="A188">
         <v>6747</v>
       </c>
-      <c r="B188">
-        <v>12345</v>
+      <c r="B188" t="s">
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
@@ -3730,8 +3733,8 @@
       <c r="A189">
         <v>6748</v>
       </c>
-      <c r="B189">
-        <v>12345</v>
+      <c r="B189" t="s">
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
@@ -3747,8 +3750,8 @@
       <c r="A190">
         <v>6749</v>
       </c>
-      <c r="B190">
-        <v>12345</v>
+      <c r="B190" t="s">
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
@@ -3764,8 +3767,8 @@
       <c r="A191">
         <v>6750</v>
       </c>
-      <c r="B191">
-        <v>12345</v>
+      <c r="B191" t="s">
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
@@ -3781,8 +3784,8 @@
       <c r="A192">
         <v>6751</v>
       </c>
-      <c r="B192">
-        <v>12345</v>
+      <c r="B192" t="s">
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
@@ -3798,8 +3801,8 @@
       <c r="A193">
         <v>6752</v>
       </c>
-      <c r="B193">
-        <v>12345</v>
+      <c r="B193" t="s">
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
@@ -3815,8 +3818,8 @@
       <c r="A194">
         <v>6753</v>
       </c>
-      <c r="B194">
-        <v>12345</v>
+      <c r="B194" t="s">
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
@@ -3832,8 +3835,8 @@
       <c r="A195">
         <v>6754</v>
       </c>
-      <c r="B195">
-        <v>12345</v>
+      <c r="B195" t="s">
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
@@ -3849,8 +3852,8 @@
       <c r="A196">
         <v>6755</v>
       </c>
-      <c r="B196">
-        <v>12345</v>
+      <c r="B196" t="s">
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
@@ -3866,8 +3869,8 @@
       <c r="A197">
         <v>6756</v>
       </c>
-      <c r="B197">
-        <v>12345</v>
+      <c r="B197" t="s">
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
@@ -3883,8 +3886,8 @@
       <c r="A198">
         <v>6757</v>
       </c>
-      <c r="B198">
-        <v>12345</v>
+      <c r="B198" t="s">
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
@@ -3900,8 +3903,8 @@
       <c r="A199">
         <v>6758</v>
       </c>
-      <c r="B199">
-        <v>12345</v>
+      <c r="B199" t="s">
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
@@ -3917,8 +3920,8 @@
       <c r="A200">
         <v>6759</v>
       </c>
-      <c r="B200">
-        <v>12345</v>
+      <c r="B200" t="s">
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
@@ -3934,8 +3937,8 @@
       <c r="A201">
         <v>6760</v>
       </c>
-      <c r="B201">
-        <v>12345</v>
+      <c r="B201" t="s">
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -3951,8 +3954,8 @@
       <c r="A202">
         <v>6761</v>
       </c>
-      <c r="B202">
-        <v>12345</v>
+      <c r="B202" t="s">
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
@@ -3968,8 +3971,8 @@
       <c r="A203">
         <v>6762</v>
       </c>
-      <c r="B203">
-        <v>12345</v>
+      <c r="B203" t="s">
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
@@ -3985,8 +3988,8 @@
       <c r="A204">
         <v>6763</v>
       </c>
-      <c r="B204">
-        <v>12345</v>
+      <c r="B204" t="s">
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
@@ -4002,8 +4005,8 @@
       <c r="A205">
         <v>6764</v>
       </c>
-      <c r="B205">
-        <v>12345</v>
+      <c r="B205" t="s">
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
@@ -4019,8 +4022,8 @@
       <c r="A206">
         <v>6765</v>
       </c>
-      <c r="B206">
-        <v>12345</v>
+      <c r="B206" t="s">
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
@@ -4036,8 +4039,8 @@
       <c r="A207">
         <v>6766</v>
       </c>
-      <c r="B207">
-        <v>12345</v>
+      <c r="B207" t="s">
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
@@ -4053,8 +4056,8 @@
       <c r="A208">
         <v>6767</v>
       </c>
-      <c r="B208">
-        <v>12345</v>
+      <c r="B208" t="s">
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
@@ -4070,8 +4073,8 @@
       <c r="A209">
         <v>6768</v>
       </c>
-      <c r="B209">
-        <v>12345</v>
+      <c r="B209" t="s">
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>6</v>
@@ -4087,8 +4090,8 @@
       <c r="A210">
         <v>6769</v>
       </c>
-      <c r="B210">
-        <v>12345</v>
+      <c r="B210" t="s">
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
@@ -4104,8 +4107,8 @@
       <c r="A211">
         <v>6770</v>
       </c>
-      <c r="B211">
-        <v>12345</v>
+      <c r="B211" t="s">
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
@@ -4121,8 +4124,8 @@
       <c r="A212">
         <v>6771</v>
       </c>
-      <c r="B212">
-        <v>12345</v>
+      <c r="B212" t="s">
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
@@ -4138,8 +4141,8 @@
       <c r="A213">
         <v>6772</v>
       </c>
-      <c r="B213">
-        <v>12345</v>
+      <c r="B213" t="s">
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
@@ -4152,8 +4155,8 @@
       <c r="A214">
         <v>6773</v>
       </c>
-      <c r="B214">
-        <v>12345</v>
+      <c r="B214" t="s">
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
@@ -4166,8 +4169,8 @@
       <c r="A215">
         <v>6774</v>
       </c>
-      <c r="B215">
-        <v>12345</v>
+      <c r="B215" t="s">
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
@@ -4183,8 +4186,8 @@
       <c r="A216">
         <v>6775</v>
       </c>
-      <c r="B216">
-        <v>12345</v>
+      <c r="B216" t="s">
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
@@ -4200,8 +4203,8 @@
       <c r="A217">
         <v>6776</v>
       </c>
-      <c r="B217">
-        <v>12345</v>
+      <c r="B217" t="s">
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
@@ -4217,8 +4220,8 @@
       <c r="A218">
         <v>6777</v>
       </c>
-      <c r="B218">
-        <v>12345</v>
+      <c r="B218" t="s">
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
@@ -4234,8 +4237,8 @@
       <c r="A219">
         <v>6778</v>
       </c>
-      <c r="B219">
-        <v>12345</v>
+      <c r="B219" t="s">
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
@@ -4251,8 +4254,8 @@
       <c r="A220">
         <v>6779</v>
       </c>
-      <c r="B220">
-        <v>12345</v>
+      <c r="B220" t="s">
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
@@ -4268,8 +4271,8 @@
       <c r="A221">
         <v>6780</v>
       </c>
-      <c r="B221">
-        <v>12345</v>
+      <c r="B221" t="s">
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
@@ -4282,8 +4285,8 @@
       <c r="A222">
         <v>6781</v>
       </c>
-      <c r="B222">
-        <v>12345</v>
+      <c r="B222" t="s">
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
@@ -4299,8 +4302,8 @@
       <c r="A223">
         <v>6782</v>
       </c>
-      <c r="B223">
-        <v>12345</v>
+      <c r="B223" t="s">
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
@@ -4316,8 +4319,8 @@
       <c r="A224">
         <v>6783</v>
       </c>
-      <c r="B224">
-        <v>12345</v>
+      <c r="B224" t="s">
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
@@ -4333,8 +4336,8 @@
       <c r="A225">
         <v>6784</v>
       </c>
-      <c r="B225">
-        <v>12345</v>
+      <c r="B225" t="s">
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
@@ -4350,8 +4353,8 @@
       <c r="A226">
         <v>6785</v>
       </c>
-      <c r="B226">
-        <v>12345</v>
+      <c r="B226" t="s">
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
@@ -4367,8 +4370,8 @@
       <c r="A227">
         <v>6786</v>
       </c>
-      <c r="B227">
-        <v>12345</v>
+      <c r="B227" t="s">
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
@@ -4384,8 +4387,8 @@
       <c r="A228">
         <v>6787</v>
       </c>
-      <c r="B228">
-        <v>12345</v>
+      <c r="B228" t="s">
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
@@ -4401,8 +4404,8 @@
       <c r="A229">
         <v>6788</v>
       </c>
-      <c r="B229">
-        <v>12345</v>
+      <c r="B229" t="s">
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
@@ -4418,8 +4421,8 @@
       <c r="A230">
         <v>6789</v>
       </c>
-      <c r="B230">
-        <v>12345</v>
+      <c r="B230" t="s">
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
@@ -4435,8 +4438,8 @@
       <c r="A231">
         <v>6790</v>
       </c>
-      <c r="B231">
-        <v>12345</v>
+      <c r="B231" t="s">
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
@@ -4452,8 +4455,8 @@
       <c r="A232">
         <v>6791</v>
       </c>
-      <c r="B232">
-        <v>12345</v>
+      <c r="B232" t="s">
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
@@ -4469,8 +4472,8 @@
       <c r="A233">
         <v>6792</v>
       </c>
-      <c r="B233">
-        <v>12345</v>
+      <c r="B233" t="s">
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
@@ -4486,8 +4489,8 @@
       <c r="A234">
         <v>6793</v>
       </c>
-      <c r="B234">
-        <v>12345</v>
+      <c r="B234" t="s">
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>6</v>
@@ -4503,8 +4506,8 @@
       <c r="A235">
         <v>6794</v>
       </c>
-      <c r="B235">
-        <v>12345</v>
+      <c r="B235" t="s">
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
@@ -4520,8 +4523,8 @@
       <c r="A236">
         <v>6795</v>
       </c>
-      <c r="B236">
-        <v>12345</v>
+      <c r="B236" t="s">
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
@@ -4537,8 +4540,8 @@
       <c r="A237">
         <v>6796</v>
       </c>
-      <c r="B237">
-        <v>12345</v>
+      <c r="B237" t="s">
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
@@ -4554,8 +4557,8 @@
       <c r="A238">
         <v>6797</v>
       </c>
-      <c r="B238">
-        <v>12345</v>
+      <c r="B238" t="s">
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>6</v>
@@ -4571,8 +4574,8 @@
       <c r="A239">
         <v>6798</v>
       </c>
-      <c r="B239">
-        <v>12345</v>
+      <c r="B239" t="s">
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
@@ -4588,8 +4591,8 @@
       <c r="A240">
         <v>6799</v>
       </c>
-      <c r="B240">
-        <v>12345</v>
+      <c r="B240" t="s">
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
@@ -4605,8 +4608,8 @@
       <c r="A241">
         <v>6800</v>
       </c>
-      <c r="B241">
-        <v>12345</v>
+      <c r="B241" t="s">
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>6</v>
@@ -4622,8 +4625,8 @@
       <c r="A242">
         <v>6801</v>
       </c>
-      <c r="B242">
-        <v>12345</v>
+      <c r="B242" t="s">
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
@@ -4639,8 +4642,8 @@
       <c r="A243">
         <v>6802</v>
       </c>
-      <c r="B243">
-        <v>12345</v>
+      <c r="B243" t="s">
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
@@ -4656,8 +4659,8 @@
       <c r="A244">
         <v>6803</v>
       </c>
-      <c r="B244">
-        <v>12345</v>
+      <c r="B244" t="s">
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>6</v>
@@ -4673,8 +4676,8 @@
       <c r="A245">
         <v>6804</v>
       </c>
-      <c r="B245">
-        <v>12345</v>
+      <c r="B245" t="s">
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
@@ -4690,8 +4693,8 @@
       <c r="A246">
         <v>6805</v>
       </c>
-      <c r="B246">
-        <v>12345</v>
+      <c r="B246" t="s">
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
@@ -4707,8 +4710,8 @@
       <c r="A247">
         <v>6806</v>
       </c>
-      <c r="B247">
-        <v>12345</v>
+      <c r="B247" t="s">
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
@@ -4724,8 +4727,8 @@
       <c r="A248">
         <v>6807</v>
       </c>
-      <c r="B248">
-        <v>12345</v>
+      <c r="B248" t="s">
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
@@ -4741,8 +4744,8 @@
       <c r="A249">
         <v>6808</v>
       </c>
-      <c r="B249">
-        <v>12345</v>
+      <c r="B249" t="s">
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>6</v>
@@ -4758,8 +4761,8 @@
       <c r="A250">
         <v>6809</v>
       </c>
-      <c r="B250">
-        <v>12345</v>
+      <c r="B250" t="s">
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
@@ -4775,8 +4778,8 @@
       <c r="A251">
         <v>6810</v>
       </c>
-      <c r="B251">
-        <v>12345</v>
+      <c r="B251" t="s">
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>6</v>
@@ -4792,8 +4795,8 @@
       <c r="A252">
         <v>6811</v>
       </c>
-      <c r="B252">
-        <v>12345</v>
+      <c r="B252" t="s">
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>6</v>
@@ -4809,8 +4812,8 @@
       <c r="A253">
         <v>6812</v>
       </c>
-      <c r="B253">
-        <v>12345</v>
+      <c r="B253" t="s">
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>6</v>
@@ -4826,8 +4829,8 @@
       <c r="A254">
         <v>6813</v>
       </c>
-      <c r="B254">
-        <v>12345</v>
+      <c r="B254" t="s">
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>6</v>
@@ -4843,8 +4846,8 @@
       <c r="A255">
         <v>6814</v>
       </c>
-      <c r="B255">
-        <v>12345</v>
+      <c r="B255" t="s">
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>6</v>
@@ -4860,8 +4863,8 @@
       <c r="A256">
         <v>6815</v>
       </c>
-      <c r="B256">
-        <v>12345</v>
+      <c r="B256" t="s">
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>6</v>
@@ -4877,8 +4880,8 @@
       <c r="A257">
         <v>6816</v>
       </c>
-      <c r="B257">
-        <v>12345</v>
+      <c r="B257" t="s">
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>6</v>
@@ -4891,8 +4894,8 @@
       <c r="A258">
         <v>6817</v>
       </c>
-      <c r="B258">
-        <v>12345</v>
+      <c r="B258" t="s">
+        <v>7</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
@@ -4908,8 +4911,8 @@
       <c r="A259">
         <v>6818</v>
       </c>
-      <c r="B259">
-        <v>12345</v>
+      <c r="B259" t="s">
+        <v>7</v>
       </c>
       <c r="C259" t="s">
         <v>6</v>
@@ -4925,8 +4928,8 @@
       <c r="A260">
         <v>6819</v>
       </c>
-      <c r="B260">
-        <v>12345</v>
+      <c r="B260" t="s">
+        <v>7</v>
       </c>
       <c r="C260" t="s">
         <v>6</v>
@@ -4942,8 +4945,8 @@
       <c r="A261">
         <v>6820</v>
       </c>
-      <c r="B261">
-        <v>12345</v>
+      <c r="B261" t="s">
+        <v>7</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
@@ -4959,8 +4962,8 @@
       <c r="A262">
         <v>6821</v>
       </c>
-      <c r="B262">
-        <v>12345</v>
+      <c r="B262" t="s">
+        <v>7</v>
       </c>
       <c r="C262" t="s">
         <v>6</v>
@@ -4976,8 +4979,8 @@
       <c r="A263">
         <v>6822</v>
       </c>
-      <c r="B263">
-        <v>12345</v>
+      <c r="B263" t="s">
+        <v>7</v>
       </c>
       <c r="C263" t="s">
         <v>6</v>
@@ -4993,8 +4996,8 @@
       <c r="A264">
         <v>6823</v>
       </c>
-      <c r="B264">
-        <v>12345</v>
+      <c r="B264" t="s">
+        <v>7</v>
       </c>
       <c r="C264" t="s">
         <v>6</v>
@@ -5010,8 +5013,8 @@
       <c r="A265">
         <v>6824</v>
       </c>
-      <c r="B265">
-        <v>12345</v>
+      <c r="B265" t="s">
+        <v>7</v>
       </c>
       <c r="C265" t="s">
         <v>6</v>
@@ -5027,8 +5030,8 @@
       <c r="A266">
         <v>6825</v>
       </c>
-      <c r="B266">
-        <v>12345</v>
+      <c r="B266" t="s">
+        <v>7</v>
       </c>
       <c r="C266" t="s">
         <v>6</v>
@@ -5041,8 +5044,8 @@
       <c r="A267">
         <v>6826</v>
       </c>
-      <c r="B267">
-        <v>12345</v>
+      <c r="B267" t="s">
+        <v>7</v>
       </c>
       <c r="C267" t="s">
         <v>6</v>
@@ -5055,8 +5058,8 @@
       <c r="A268">
         <v>6827</v>
       </c>
-      <c r="B268">
-        <v>12345</v>
+      <c r="B268" t="s">
+        <v>7</v>
       </c>
       <c r="C268" t="s">
         <v>6</v>
@@ -5069,8 +5072,8 @@
       <c r="A269">
         <v>6828</v>
       </c>
-      <c r="B269">
-        <v>12345</v>
+      <c r="B269" t="s">
+        <v>7</v>
       </c>
       <c r="C269" t="s">
         <v>6</v>
@@ -5083,8 +5086,8 @@
       <c r="A270">
         <v>6829</v>
       </c>
-      <c r="B270">
-        <v>12345</v>
+      <c r="B270" t="s">
+        <v>7</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
@@ -5097,8 +5100,8 @@
       <c r="A271">
         <v>6830</v>
       </c>
-      <c r="B271">
-        <v>12345</v>
+      <c r="B271" t="s">
+        <v>7</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
@@ -5111,8 +5114,8 @@
       <c r="A272">
         <v>6831</v>
       </c>
-      <c r="B272">
-        <v>12345</v>
+      <c r="B272" t="s">
+        <v>7</v>
       </c>
       <c r="C272" t="s">
         <v>6</v>
@@ -5125,8 +5128,8 @@
       <c r="A273">
         <v>6832</v>
       </c>
-      <c r="B273">
-        <v>12345</v>
+      <c r="B273" t="s">
+        <v>7</v>
       </c>
       <c r="C273" t="s">
         <v>6</v>
@@ -5139,8 +5142,8 @@
       <c r="A274">
         <v>6833</v>
       </c>
-      <c r="B274">
-        <v>12345</v>
+      <c r="B274" t="s">
+        <v>7</v>
       </c>
       <c r="C274" t="s">
         <v>6</v>
@@ -5153,8 +5156,8 @@
       <c r="A275">
         <v>6834</v>
       </c>
-      <c r="B275">
-        <v>12345</v>
+      <c r="B275" t="s">
+        <v>7</v>
       </c>
       <c r="C275" t="s">
         <v>6</v>
@@ -5167,8 +5170,8 @@
       <c r="A276">
         <v>6835</v>
       </c>
-      <c r="B276">
-        <v>12345</v>
+      <c r="B276" t="s">
+        <v>7</v>
       </c>
       <c r="C276" t="s">
         <v>6</v>
@@ -5181,8 +5184,8 @@
       <c r="A277">
         <v>6836</v>
       </c>
-      <c r="B277">
-        <v>12345</v>
+      <c r="B277" t="s">
+        <v>7</v>
       </c>
       <c r="C277" t="s">
         <v>6</v>
@@ -5195,8 +5198,8 @@
       <c r="A278">
         <v>6837</v>
       </c>
-      <c r="B278">
-        <v>12345</v>
+      <c r="B278" t="s">
+        <v>7</v>
       </c>
       <c r="C278" t="s">
         <v>6</v>
@@ -5209,8 +5212,8 @@
       <c r="A279">
         <v>6838</v>
       </c>
-      <c r="B279">
-        <v>12345</v>
+      <c r="B279" t="s">
+        <v>7</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
@@ -5223,8 +5226,8 @@
       <c r="A280">
         <v>6839</v>
       </c>
-      <c r="B280">
-        <v>12345</v>
+      <c r="B280" t="s">
+        <v>7</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
@@ -5240,8 +5243,8 @@
       <c r="A281">
         <v>6840</v>
       </c>
-      <c r="B281">
-        <v>12345</v>
+      <c r="B281" t="s">
+        <v>7</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
@@ -5254,8 +5257,8 @@
       <c r="A282">
         <v>6841</v>
       </c>
-      <c r="B282">
-        <v>12345</v>
+      <c r="B282" t="s">
+        <v>7</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
@@ -5268,8 +5271,8 @@
       <c r="A283">
         <v>6842</v>
       </c>
-      <c r="B283">
-        <v>12345</v>
+      <c r="B283" t="s">
+        <v>7</v>
       </c>
       <c r="C283" t="s">
         <v>6</v>
